--- a/data/trans_dic/P3A$yo-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$yo-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,79; 57,32</t>
+          <t>40,56; 58,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>59,49; 74,49</t>
+          <t>60,14; 74,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>51,64; 63,64</t>
+          <t>50,85; 63,34</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>61,14; 73,1</t>
+          <t>61,15; 73,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,35; 96,24</t>
+          <t>90,47; 96,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,83; 86,1</t>
+          <t>78,18; 86,26</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>73,02; 81,07</t>
+          <t>73,22; 80,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>96,04; 98,3</t>
+          <t>95,91; 98,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,63; 89,79</t>
+          <t>85,69; 90,32</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,07; 73,68</t>
+          <t>24,24; 74,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96,33; 98,29</t>
+          <t>96,38; 98,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,3; 86,44</t>
+          <t>43,43; 86,39</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>65,5; 72,53</t>
+          <t>64,96; 72,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>95,68; 97,92</t>
+          <t>95,6; 97,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,71; 84,58</t>
+          <t>80,43; 84,56</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,51; 66,89</t>
+          <t>58,87; 67,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94,12; 98,71</t>
+          <t>94,24; 98,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>78,57; 90,72</t>
+          <t>78,71; 92,1</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>44,43; 53,71</t>
+          <t>44,88; 54,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>71,96; 77,9</t>
+          <t>71,82; 77,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>61,56; 67,27</t>
+          <t>61,78; 67,37</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>47,32; 66,75</t>
+          <t>47,57; 66,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>90,43; 93,24</t>
+          <t>90,35; 93,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>68,01; 80,23</t>
+          <t>67,01; 80,34</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que la persona entrevistada se ocupa principalmente de las tareas domésticas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>196451</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>211927</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>408377</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>162232; 233158</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>188349; 234227</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>362663; 451754</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>285935</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>479432</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>765367</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>259018; 310160</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>463313; 493641</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>731473; 807095</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>823</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1236</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>413336</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>576164</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>989500</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>392716; 432150</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>567782; 581482</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>966901; 1019170</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1110</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1596</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>468927</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>693913</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1162839</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>215171; 660351</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>686407; 699811</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>694878; 1382222</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>974</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1429</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>386377</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>531277</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>917654</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>364566; 406015</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>523792; 536390</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>892029; 937893</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>780</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1137</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>230492</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>586226</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>816720</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>216102; 247397</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>572771; 599948</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>767329; 897840</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>139089</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>318639</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>457728</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>126895; 153194</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>305815; 331037</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>437752; 477353</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2227</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>4937</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>7164</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2120608</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3397577</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>5518185</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1645467; 2299797</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3352739; 3457073</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>4804174; 5760368</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>